--- a/files/SM1/K7/K7-P188-City.xlsx
+++ b/files/SM1/K7/K7-P188-City.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finnish-space\files\SM1\K7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C593D2-C8AE-4883-B723-BFC23CBC14D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CF7AED-36A4-4596-91CB-61715A6CBEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="17720" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>kirkko</t>
   </si>
@@ -321,6 +321,46 @@
   </si>
   <si>
     <t>closed(longer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eläin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tarha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leikki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fun, game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pääsy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admission, access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aukioloaika</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opening hour</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1078,6 +1118,46 @@
         <v>97</v>
       </c>
     </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
